--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211118_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/1.NhanBH/NBH211118_Qmaps.xlsx
@@ -78,9 +78,6 @@
     <t>TG102LE</t>
   </si>
   <si>
-    <t>Tên cty/ cá nhân: Đại lý Kim Long</t>
-  </si>
-  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Tên cty/ cá nhân: Đại lý Qmaps</t>
   </si>
 </sst>
 </file>
@@ -491,6 +491,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,45 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,7 +925,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -942,92 +942,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1054,14 +1054,14 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="17">
         <v>868926033936151</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1076,34 +1076,34 @@
         <v>867717030417639</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
@@ -1139,16 +1139,16 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -1176,6 +1176,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B8:F8"/>
@@ -1184,13 +1191,6 @@
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
